--- a/ex_05/jacobi/scripts/Jacobi.xlsx
+++ b/ex_05/jacobi/scripts/Jacobi.xlsx
@@ -13,18 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>EdgeSize</t>
   </si>
   <si>
-    <t xml:space="preserve">No unrolling</t>
+    <t xml:space="preserve">Without spatial blocking</t>
   </si>
   <si>
-    <t xml:space="preserve">Twofold unrolling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fourfold unrolling</t>
+    <t xml:space="preserve">With spatial blocking</t>
   </si>
 </sst>
 </file>
@@ -59,9 +56,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,260 +601,6 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>467.213453</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fourfold unrolling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
-              <c:strCache>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10368</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15488</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70688</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103968</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>152352</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>223112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>326432</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>476288</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>700928</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1025312</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1492992</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2188232</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3205512</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4681800</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6845000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10017288</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14666528</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21438152</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31363200</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45849888</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67094528</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>30.19985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.018428</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.587541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.138423</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143.119817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184.737257</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250.779504</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>312.217427</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>363.558087</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>417.985275</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>457.295855</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>466.114824</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>531.804091</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>549.193306</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>558.648694</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>452.744469</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>458.604921</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>463.325286</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>470.631793</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>476.595044</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>476.654879</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>480.984812</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>480.547651</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>481.554649</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>487.472374</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>487.196686</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>484.066873</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>477.869177</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>469.349519</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>465.117541</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>468.592746</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>470.148853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2330,7 +2077,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2346,853 +2093,719 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2">
-        <v>8</v>
+      <c r="A2" s="3">
+        <v>256</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B9" si="0">A2*A2*8</f>
-        <v>512</v>
-      </c>
-      <c r="C2">
-        <v>477.00338299999999</v>
-      </c>
-      <c r="D2">
-        <v>229.775914</v>
-      </c>
-      <c r="E2">
-        <v>363.370856</v>
-      </c>
+        <v>524288</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1157.190793</v>
+      </c>
+      <c r="D2" s="3">
+        <v>697.16206</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3">
-        <v>9</v>
+      <c r="A3" s="3">
+        <v>299</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>648</v>
-      </c>
-      <c r="C3">
-        <v>489.74154399999998</v>
-      </c>
-      <c r="D3">
-        <v>227.69118700000001</v>
-      </c>
-      <c r="E3">
-        <v>381.209835</v>
-      </c>
+        <v>715208</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1097.3572879999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>736.83719099999996</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4">
-        <v>11</v>
+      <c r="A4" s="3">
+        <v>350</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>968</v>
-      </c>
-      <c r="C4">
-        <v>505.05123700000001</v>
-      </c>
-      <c r="D4">
-        <v>240.62138300000001</v>
-      </c>
-      <c r="E4">
-        <v>422.18161700000002</v>
-      </c>
+        <v>980000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1136.682483</v>
+      </c>
+      <c r="D4" s="3">
+        <v>774.67281700000001</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5">
-        <v>14</v>
+      <c r="A5" s="3">
+        <v>409</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1568</v>
-      </c>
-      <c r="C5">
-        <v>503.998558</v>
-      </c>
-      <c r="D5">
-        <v>260.84746100000001</v>
-      </c>
-      <c r="E5">
-        <v>456.86924900000002</v>
-      </c>
+        <v>1338248</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1110.3628189999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>802.81501100000003</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6">
-        <v>17</v>
+      <c r="A6" s="3">
+        <v>478</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2312</v>
-      </c>
-      <c r="C6">
-        <v>515.54352300000005</v>
-      </c>
-      <c r="D6">
-        <v>257.42609499999998</v>
-      </c>
-      <c r="E6">
-        <v>464.37258500000002</v>
-      </c>
+        <v>1827872</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1110.2999259999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>834.50105199999996</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7">
-        <v>20</v>
+      <c r="A7" s="3">
+        <v>559</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="C7">
-        <v>522.454973</v>
-      </c>
-      <c r="D7">
-        <v>268.46939600000002</v>
-      </c>
-      <c r="E7">
-        <v>489.80123099999997</v>
-      </c>
+        <v>2499848</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1138.7539139999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>892.93587500000001</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8">
-        <v>25</v>
+      <c r="A8" s="3">
+        <v>654</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="C8">
-        <v>529.31953699999997</v>
-      </c>
-      <c r="D8">
-        <v>266.12965600000001</v>
-      </c>
-      <c r="E8">
-        <v>487.21328</v>
-      </c>
+        <v>3421728</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1184.5816090000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>933.361985</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9">
-        <v>30</v>
+      <c r="A9" s="3">
+        <v>765</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="C9">
-        <v>533.39379399999996</v>
-      </c>
-      <c r="D9">
-        <v>274.53410200000002</v>
-      </c>
-      <c r="E9">
-        <v>500.47185899999999</v>
-      </c>
+        <v>4681800</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1144.33889</v>
+      </c>
+      <c r="D9" s="3">
+        <v>943.18356100000005</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10">
-        <v>36</v>
+      <c r="A10" s="3">
+        <v>895</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B33" si="1">A10*A10*8</f>
-        <v>10368</v>
-      </c>
-      <c r="C10">
-        <v>536.25492799999995</v>
-      </c>
-      <c r="D10">
-        <v>277.06297899999998</v>
-      </c>
-      <c r="E10">
-        <v>517.519949</v>
-      </c>
+        <v>6408200</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1103.1109060000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>953.872435</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11">
-        <v>44</v>
+      <c r="A11" s="3">
+        <v>1047</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>15488</v>
-      </c>
-      <c r="C11">
-        <v>492.669982</v>
-      </c>
-      <c r="D11">
-        <v>278.45710300000002</v>
-      </c>
-      <c r="E11">
-        <v>521.818532</v>
-      </c>
+        <v>8769672</v>
+      </c>
+      <c r="C11" s="3">
+        <v>955.88675000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>856.92601000000002</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12">
-        <v>53</v>
+      <c r="A12" s="3">
+        <v>1224</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>22472</v>
-      </c>
-      <c r="C12">
-        <v>501.35814199999999</v>
-      </c>
-      <c r="D12">
-        <v>274.63597700000003</v>
-      </c>
-      <c r="E12">
-        <v>503.285459</v>
-      </c>
+        <v>11985408</v>
+      </c>
+      <c r="C12" s="3">
+        <v>912.75928799999997</v>
+      </c>
+      <c r="D12" s="3">
+        <v>855.13901499999997</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13">
-        <v>64</v>
+      <c r="A13" s="3">
+        <v>1432</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>32768</v>
-      </c>
-      <c r="C13">
-        <v>501.803946</v>
-      </c>
-      <c r="D13">
-        <v>280.545883</v>
-      </c>
-      <c r="E13">
-        <v>521.89115600000002</v>
-      </c>
+        <v>16404992</v>
+      </c>
+      <c r="C13" s="3">
+        <v>639.37661600000001</v>
+      </c>
+      <c r="D13" s="3">
+        <v>465.19892700000003</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14">
-        <v>78</v>
+      <c r="A14" s="3">
+        <v>1674</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>48672</v>
-      </c>
-      <c r="C14">
-        <v>515.93092000000001</v>
-      </c>
-      <c r="D14">
-        <v>280.41796900000003</v>
-      </c>
-      <c r="E14">
-        <v>524.53464799999995</v>
-      </c>
+        <v>22418208</v>
+      </c>
+      <c r="C14" s="3">
+        <v>587.44833200000005</v>
+      </c>
+      <c r="D14" s="3">
+        <v>577.43222800000001</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15">
-        <v>94</v>
+      <c r="A15" s="3">
+        <v>1958</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
-        <v>70688</v>
-      </c>
-      <c r="C15">
-        <v>521.17180599999995</v>
-      </c>
-      <c r="D15">
-        <v>280.64580000000001</v>
-      </c>
-      <c r="E15">
-        <v>527.556557</v>
-      </c>
+        <v>30670112</v>
+      </c>
+      <c r="C15" s="3">
+        <v>560.88391799999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>561.57662600000003</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16">
-        <v>114</v>
+      <c r="A16" s="3">
+        <v>2290</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
-        <v>103968</v>
-      </c>
-      <c r="C16">
-        <v>525.49717999999996</v>
-      </c>
-      <c r="D16">
-        <v>281.87024300000002</v>
-      </c>
-      <c r="E16">
-        <v>530.241038</v>
-      </c>
+        <v>41952800</v>
+      </c>
+      <c r="C16" s="3">
+        <v>585.79559200000006</v>
+      </c>
+      <c r="D16" s="3">
+        <v>577.554891</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17">
-        <v>138</v>
+      <c r="A17" s="3">
+        <v>2678</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
-        <v>152352</v>
-      </c>
-      <c r="C17">
-        <v>457.50805100000002</v>
-      </c>
-      <c r="D17">
-        <v>280.25693799999999</v>
-      </c>
-      <c r="E17">
-        <v>523.78369999999995</v>
-      </c>
+        <v>57373472</v>
+      </c>
+      <c r="C17" s="3">
+        <v>582.34519299999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>572.37581999999998</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18">
-        <v>167</v>
+      <c r="A18" s="3">
+        <v>3132</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
-        <v>223112</v>
-      </c>
-      <c r="C18">
-        <v>459.25334099999998</v>
-      </c>
-      <c r="D18">
-        <v>281.31406800000002</v>
-      </c>
-      <c r="E18">
-        <v>529.31577100000004</v>
-      </c>
+        <v>78475392</v>
+      </c>
+      <c r="C18" s="3">
+        <v>565.87723800000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>552.54212800000005</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19">
-        <v>202</v>
+      <c r="A19" s="3">
+        <v>3662</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
-        <v>326432</v>
-      </c>
-      <c r="C19">
-        <v>436.93463000000003</v>
-      </c>
-      <c r="D19">
-        <v>281.41362900000001</v>
-      </c>
-      <c r="E19">
-        <v>529.31265900000005</v>
-      </c>
+        <v>107281952</v>
+      </c>
+      <c r="C19" s="3">
+        <v>587.39065900000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>579.10484899999994</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20">
-        <v>244</v>
+      <c r="A20" s="3">
+        <v>4283</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>476288</v>
-      </c>
-      <c r="C20">
-        <v>463.14199500000001</v>
-      </c>
-      <c r="D20">
-        <v>282.48126200000002</v>
-      </c>
-      <c r="E20">
-        <v>531.80894999999998</v>
-      </c>
+        <v>146752712</v>
+      </c>
+      <c r="C20" s="3">
+        <v>581.22129800000005</v>
+      </c>
+      <c r="D20" s="3">
+        <v>580.78039699999999</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21">
-        <v>296</v>
+      <c r="A21" s="3">
+        <v>5009</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>700928</v>
-      </c>
-      <c r="C21">
-        <v>464.65295700000001</v>
-      </c>
-      <c r="D21">
-        <v>281.46252299999998</v>
-      </c>
-      <c r="E21">
-        <v>537.64163599999995</v>
-      </c>
+        <v>200720648</v>
+      </c>
+      <c r="C21" s="3">
+        <v>579.33366899999999</v>
+      </c>
+      <c r="D21" s="3">
+        <v>578.11170600000003</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22">
-        <v>358</v>
+      <c r="A22" s="3">
+        <v>5857</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>1025312</v>
-      </c>
-      <c r="C22">
-        <v>465.63022999999998</v>
-      </c>
-      <c r="D22">
-        <v>281.56253700000002</v>
-      </c>
-      <c r="E22">
-        <v>535.39661799999999</v>
-      </c>
+        <v>274435592</v>
+      </c>
+      <c r="C22" s="3">
+        <v>576.02370900000005</v>
+      </c>
+      <c r="D22" s="3">
+        <v>574.20469200000002</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23">
-        <v>432</v>
+      <c r="A23" s="3">
+        <v>6850</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
-        <v>1492992</v>
-      </c>
-      <c r="C23">
-        <v>466.53061200000002</v>
-      </c>
-      <c r="D23">
-        <v>282.42945500000002</v>
-      </c>
-      <c r="E23">
-        <v>537.47406100000001</v>
-      </c>
+        <v>375380000</v>
+      </c>
+      <c r="C23" s="3">
+        <v>583.79478500000005</v>
+      </c>
+      <c r="D23" s="3">
+        <v>584.11791900000003</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24">
-        <v>523</v>
+      <c r="A24" s="3">
+        <v>8011</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
-        <v>2188232</v>
-      </c>
-      <c r="C24">
-        <v>467.15184900000003</v>
-      </c>
-      <c r="D24">
-        <v>282.49671899999998</v>
-      </c>
-      <c r="E24">
-        <v>539.715913</v>
-      </c>
+        <v>513408968</v>
+      </c>
+      <c r="C24" s="3">
+        <v>528.79411300000004</v>
+      </c>
+      <c r="D24" s="3">
+        <v>529.46957699999996</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25">
-        <v>633</v>
+      <c r="A25" s="3">
+        <v>9368</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
-        <v>3205512</v>
-      </c>
-      <c r="C25">
-        <v>468.20012700000001</v>
-      </c>
-      <c r="D25">
-        <v>281.16252100000003</v>
-      </c>
-      <c r="E25">
-        <v>538.20171800000003</v>
-      </c>
+        <v>702075392</v>
+      </c>
+      <c r="C25" s="3">
+        <v>489.35463199999998</v>
+      </c>
+      <c r="D25" s="3">
+        <v>484.83450800000003</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26">
-        <v>765</v>
+      <c r="A26" s="3">
+        <v>10955</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>4681800</v>
-      </c>
-      <c r="C26">
-        <v>464.96075000000002</v>
-      </c>
-      <c r="D26">
-        <v>283.64221600000002</v>
-      </c>
-      <c r="E26">
-        <v>539.884546</v>
-      </c>
+        <v>960096200</v>
+      </c>
+      <c r="C26" s="3">
+        <v>491.93533600000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>490.17258700000002</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27">
-        <v>925</v>
+      <c r="A27" s="3">
+        <v>12811</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
-        <v>6845000</v>
-      </c>
-      <c r="C27">
-        <v>468.71607499999999</v>
-      </c>
-      <c r="D27">
-        <v>284.21188100000001</v>
-      </c>
-      <c r="E27">
-        <v>540.646164</v>
-      </c>
+        <v>1312973768</v>
+      </c>
+      <c r="C27" s="3">
+        <v>474.70011199999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>546.90570500000001</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28">
-        <v>1119</v>
+      <c r="A28" s="3">
+        <v>14982</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
-        <v>10017288</v>
-      </c>
-      <c r="C28">
-        <v>463.58659699999998</v>
-      </c>
-      <c r="D28">
-        <v>283.19735400000002</v>
-      </c>
-      <c r="E28">
-        <v>539.64373999999998</v>
-      </c>
+        <v>1795682592</v>
+      </c>
+      <c r="C28" s="3">
+        <v>481.03057000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>654.43081500000005</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29">
-        <v>1354</v>
+      <c r="A29" s="3">
+        <v>17521</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
-        <v>14666528</v>
-      </c>
-      <c r="C29">
-        <v>456.983587</v>
-      </c>
-      <c r="D29">
-        <v>280.174103</v>
-      </c>
-      <c r="E29">
-        <v>526.66202699999997</v>
-      </c>
+        <v>2455883528</v>
+      </c>
+      <c r="C29" s="3">
+        <v>483.934099</v>
+      </c>
+      <c r="D29" s="3">
+        <v>768.37998200000004</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30">
-        <v>1637</v>
+      <c r="A30" s="3">
+        <v>20489</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
-        <v>21438152</v>
-      </c>
-      <c r="C30">
-        <v>449.89911999999998</v>
-      </c>
-      <c r="D30">
-        <v>281.054193</v>
-      </c>
-      <c r="E30">
-        <v>513.82890799999996</v>
-      </c>
+        <v>3358392968</v>
+      </c>
+      <c r="C30" s="3">
+        <v>488.79403000000002</v>
+      </c>
+      <c r="D30" s="3">
+        <v>909.421606</v>
+      </c>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31">
-        <v>1980</v>
+      <c r="A31" s="3">
+        <v>23961</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
-        <v>31363200</v>
-      </c>
-      <c r="C31">
-        <v>452.831749</v>
-      </c>
-      <c r="D31">
-        <v>280.37263300000001</v>
-      </c>
-      <c r="E31">
-        <v>506.013688</v>
-      </c>
+        <v>4593036168</v>
+      </c>
+      <c r="C31" s="3">
+        <v>477.909378</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1055.668887</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32">
-        <v>2394</v>
+      <c r="A32" s="3">
+        <v>28021</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
-        <v>45849888</v>
-      </c>
-      <c r="C32">
-        <v>448.72029199999997</v>
-      </c>
-      <c r="D32">
-        <v>280.00983100000002</v>
-      </c>
-      <c r="E32">
-        <v>507.55996399999998</v>
-      </c>
+        <v>6281411528</v>
+      </c>
+      <c r="C32" s="3">
+        <v>480.27801299999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1229.8799690000001</v>
+      </c>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33">
-        <v>2896</v>
+      <c r="A33" s="3">
+        <v>32768</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
-        <v>67094528</v>
-      </c>
-      <c r="C33">
-        <v>451.070044</v>
-      </c>
-      <c r="D33">
-        <v>280.40084899999999</v>
-      </c>
-      <c r="E33">
-        <v>507.80645500000003</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-    </row>
-    <row r="36" ht="14.25">
-      <c r="A36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" ht="14.25">
-      <c r="A37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="I37"/>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" ht="14.25">
-      <c r="A39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="I39"/>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="I40"/>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="I41"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="I42"/>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="I46"/>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="I47"/>
-    </row>
-    <row r="48" ht="14.25">
-      <c r="A48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="I48"/>
-    </row>
-    <row r="49" ht="14.25">
-      <c r="A49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="I49"/>
-    </row>
-    <row r="50" ht="14.25">
-      <c r="A50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="I50"/>
-    </row>
-    <row r="51" ht="14.25">
-      <c r="A51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="I51"/>
-    </row>
-    <row r="52" ht="14.25">
-      <c r="A52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="I52"/>
-    </row>
-    <row r="53" ht="14.25">
-      <c r="A53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="I53"/>
-    </row>
-    <row r="54" ht="14.25">
-      <c r="A54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="A55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="I55"/>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="A56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="I56"/>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="A57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="I57"/>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="A58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="I58"/>
-    </row>
-    <row r="59" ht="14.25">
-      <c r="A59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" ht="14.25">
-      <c r="A60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="I60"/>
-    </row>
-    <row r="61" ht="14.25">
-      <c r="A61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="I61"/>
-    </row>
-    <row r="62" ht="14.25">
-      <c r="A62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" ht="14.25">
-      <c r="A63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" ht="14.25">
-      <c r="A64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="I64"/>
-    </row>
-    <row r="65" ht="14.25">
-      <c r="A65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="I65"/>
-    </row>
-    <row r="66" ht="14.25">
-      <c r="A66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="I66"/>
-    </row>
-    <row r="67" ht="14.25">
-      <c r="A67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="I67"/>
-    </row>
+        <v>8589934592</v>
+      </c>
+      <c r="C33" s="3">
+        <v>474.15587399999998</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1415.523342</v>
+      </c>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25"/>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25"/>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="14.25"/>
+    <row r="44" ht="14.25"/>
+    <row r="45" ht="14.25"/>
+    <row r="46" ht="14.25"/>
+    <row r="47" ht="14.25"/>
+    <row r="48" ht="14.25"/>
+    <row r="49" ht="14.25"/>
+    <row r="50" ht="14.25"/>
+    <row r="51" ht="14.25"/>
+    <row r="52" ht="14.25"/>
+    <row r="53" ht="14.25"/>
+    <row r="54" ht="14.25"/>
+    <row r="55" ht="14.25"/>
+    <row r="56" ht="14.25"/>
+    <row r="57" ht="14.25"/>
+    <row r="58" ht="14.25"/>
+    <row r="59" ht="14.25"/>
+    <row r="60" ht="14.25"/>
+    <row r="61" ht="14.25"/>
+    <row r="62" ht="14.25"/>
+    <row r="63" ht="14.25"/>
+    <row r="64" ht="14.25"/>
+    <row r="65" ht="14.25"/>
+    <row r="66" ht="14.25"/>
+    <row r="67" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/ex_05/jacobi/scripts/Jacobi.xlsx
+++ b/ex_05/jacobi/scripts/Jacobi.xlsx
@@ -56,8 +56,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
@@ -2077,7 +2076,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2092,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1"/>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
@@ -2102,675 +2101,611 @@
       <c r="N1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>256</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B9" si="0">A2*A2*8</f>
         <v>524288</v>
       </c>
-      <c r="C2" s="3">
-        <v>1157.190793</v>
-      </c>
-      <c r="D2" s="3">
-        <v>697.16206</v>
+      <c r="C2">
+        <v>1129.6001779999999</v>
+      </c>
+      <c r="D2">
+        <v>1003.5137590000001</v>
       </c>
       <c r="I2"/>
-      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2"/>
       <c r="N2"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>299</v>
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
         <v>715208</v>
       </c>
-      <c r="C3" s="3">
-        <v>1097.3572879999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>736.83719099999996</v>
+      <c r="C3">
+        <v>1118.4014560000001</v>
+      </c>
+      <c r="D3">
+        <v>1030.0562179999999</v>
       </c>
       <c r="I3"/>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3"/>
       <c r="N3"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>350</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
-      <c r="C4" s="3">
-        <v>1136.682483</v>
-      </c>
-      <c r="D4" s="3">
-        <v>774.67281700000001</v>
+      <c r="C4">
+        <v>1151.4905639999999</v>
+      </c>
+      <c r="D4">
+        <v>1047.896508</v>
       </c>
       <c r="I4"/>
-      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4"/>
       <c r="N4"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>409</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
         <v>1338248</v>
       </c>
-      <c r="C5" s="3">
-        <v>1110.3628189999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>802.81501100000003</v>
+      <c r="C5">
+        <v>1122.2351209999999</v>
+      </c>
+      <c r="D5">
+        <v>1004.83805</v>
       </c>
       <c r="I5"/>
-      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5"/>
       <c r="N5"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>478</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
         <v>1827872</v>
       </c>
-      <c r="C6" s="3">
-        <v>1110.2999259999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>834.50105199999996</v>
+      <c r="C6">
+        <v>1103.901245</v>
+      </c>
+      <c r="D6">
+        <v>1005.58543</v>
       </c>
       <c r="I6"/>
-      <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6"/>
       <c r="N6"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>559</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
         <v>2499848</v>
       </c>
-      <c r="C7" s="3">
-        <v>1138.7539139999999</v>
-      </c>
-      <c r="D7" s="3">
-        <v>892.93587500000001</v>
+      <c r="C7">
+        <v>1138.864133</v>
+      </c>
+      <c r="D7">
+        <v>1033.974007</v>
       </c>
       <c r="I7"/>
-      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
       <c r="N7"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>654</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
         <v>3421728</v>
       </c>
-      <c r="C8" s="3">
-        <v>1184.5816090000001</v>
-      </c>
-      <c r="D8" s="3">
-        <v>933.361985</v>
+      <c r="C8">
+        <v>1171.2437339999999</v>
+      </c>
+      <c r="D8">
+        <v>1065.205213</v>
       </c>
       <c r="I8"/>
-      <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8"/>
       <c r="N8"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>765</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
         <v>4681800</v>
       </c>
-      <c r="C9" s="3">
-        <v>1144.33889</v>
-      </c>
-      <c r="D9" s="3">
-        <v>943.18356100000005</v>
+      <c r="C9">
+        <v>1145.1203310000001</v>
+      </c>
+      <c r="D9">
+        <v>1038.6963189999999</v>
       </c>
       <c r="I9"/>
-      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9"/>
       <c r="N9"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>895</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B33" si="1">A10*A10*8</f>
         <v>6408200</v>
       </c>
-      <c r="C10" s="3">
-        <v>1103.1109060000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>953.872435</v>
+      <c r="C10">
+        <v>1096.6893689999999</v>
+      </c>
+      <c r="D10">
+        <v>1026.5049610000001</v>
       </c>
       <c r="I10"/>
-      <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10"/>
       <c r="N10"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1047</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
         <v>8769672</v>
       </c>
-      <c r="C11" s="3">
-        <v>955.88675000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>856.92601000000002</v>
+      <c r="C11">
+        <v>960.74203999999997</v>
+      </c>
+      <c r="D11">
+        <v>894.91907400000002</v>
       </c>
       <c r="I11"/>
-      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
       <c r="N11"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>1224</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
         <v>11985408</v>
       </c>
-      <c r="C12" s="3">
-        <v>912.75928799999997</v>
-      </c>
-      <c r="D12" s="3">
-        <v>855.13901499999997</v>
+      <c r="C12">
+        <v>910.14231099999995</v>
+      </c>
+      <c r="D12">
+        <v>873.31736599999999</v>
       </c>
       <c r="I12"/>
-      <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
       <c r="N12"/>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>1432</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
         <v>16404992</v>
       </c>
-      <c r="C13" s="3">
-        <v>639.37661600000001</v>
-      </c>
-      <c r="D13" s="3">
-        <v>465.19892700000003</v>
+      <c r="C13">
+        <v>650.57595500000002</v>
+      </c>
+      <c r="D13">
+        <v>641.89950299999998</v>
       </c>
       <c r="I13"/>
-      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13"/>
       <c r="N13"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>1674</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
         <v>22418208</v>
       </c>
-      <c r="C14" s="3">
-        <v>587.44833200000005</v>
-      </c>
-      <c r="D14" s="3">
-        <v>577.43222800000001</v>
+      <c r="C14">
+        <v>583.48600199999998</v>
+      </c>
+      <c r="D14">
+        <v>572.89033700000005</v>
       </c>
       <c r="I14"/>
-      <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>1958</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
         <v>30670112</v>
       </c>
-      <c r="C15" s="3">
-        <v>560.88391799999999</v>
-      </c>
-      <c r="D15" s="3">
-        <v>561.57662600000003</v>
+      <c r="C15">
+        <v>558.30220999999995</v>
+      </c>
+      <c r="D15">
+        <v>557.99654399999997</v>
       </c>
       <c r="I15"/>
-      <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15"/>
       <c r="N15"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2290</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
         <v>41952800</v>
       </c>
-      <c r="C16" s="3">
-        <v>585.79559200000006</v>
-      </c>
-      <c r="D16" s="3">
-        <v>577.554891</v>
+      <c r="C16">
+        <v>584.49718399999995</v>
+      </c>
+      <c r="D16">
+        <v>577.63206300000002</v>
       </c>
       <c r="I16"/>
-      <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16"/>
       <c r="N16"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>2678</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
         <v>57373472</v>
       </c>
-      <c r="C17" s="3">
-        <v>582.34519299999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>572.37581999999998</v>
+      <c r="C17">
+        <v>573.69523700000002</v>
+      </c>
+      <c r="D17">
+        <v>570.80249900000001</v>
       </c>
       <c r="I17"/>
-      <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17"/>
       <c r="N17"/>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>3132</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
         <v>78475392</v>
       </c>
-      <c r="C18" s="3">
-        <v>565.87723800000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>552.54212800000005</v>
+      <c r="C18">
+        <v>564.05833099999995</v>
+      </c>
+      <c r="D18">
+        <v>560.28959799999996</v>
       </c>
       <c r="I18"/>
-      <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18"/>
       <c r="N18"/>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>3662</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
         <v>107281952</v>
       </c>
-      <c r="C19" s="3">
-        <v>587.39065900000003</v>
-      </c>
-      <c r="D19" s="3">
-        <v>579.10484899999994</v>
+      <c r="C19">
+        <v>586.66232400000001</v>
+      </c>
+      <c r="D19">
+        <v>582.57688800000005</v>
       </c>
       <c r="I19"/>
-      <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
       <c r="N19"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>4283</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
         <v>146752712</v>
       </c>
-      <c r="C20" s="3">
-        <v>581.22129800000005</v>
-      </c>
-      <c r="D20" s="3">
-        <v>580.78039699999999</v>
+      <c r="C20">
+        <v>584.93781899999999</v>
+      </c>
+      <c r="D20">
+        <v>581.19653000000005</v>
       </c>
       <c r="I20"/>
-      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20"/>
       <c r="N20"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>5009</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
         <v>200720648</v>
       </c>
-      <c r="C21" s="3">
-        <v>579.33366899999999</v>
-      </c>
-      <c r="D21" s="3">
-        <v>578.11170600000003</v>
+      <c r="C21">
+        <v>575.59313699999996</v>
+      </c>
+      <c r="D21">
+        <v>572.65296799999999</v>
       </c>
       <c r="I21"/>
-      <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21"/>
       <c r="N21"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>5857</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
         <v>274435592</v>
       </c>
-      <c r="C22" s="3">
-        <v>576.02370900000005</v>
-      </c>
-      <c r="D22" s="3">
-        <v>574.20469200000002</v>
+      <c r="C22">
+        <v>570.65314999999998</v>
+      </c>
+      <c r="D22">
+        <v>573.30922299999997</v>
       </c>
       <c r="I22"/>
-      <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22"/>
       <c r="N22"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>6850</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
         <v>375380000</v>
       </c>
-      <c r="C23" s="3">
-        <v>583.79478500000005</v>
-      </c>
-      <c r="D23" s="3">
-        <v>584.11791900000003</v>
+      <c r="C23">
+        <v>582.296964</v>
+      </c>
+      <c r="D23">
+        <v>563.417913</v>
       </c>
       <c r="I23"/>
-      <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23"/>
       <c r="N23"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>8011</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
         <v>513408968</v>
       </c>
-      <c r="C24" s="3">
-        <v>528.79411300000004</v>
-      </c>
-      <c r="D24" s="3">
-        <v>529.46957699999996</v>
+      <c r="C24">
+        <v>527.47463900000002</v>
+      </c>
+      <c r="D24">
+        <v>537.488516</v>
       </c>
       <c r="I24"/>
-      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24"/>
       <c r="N24"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>9368</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
         <v>702075392</v>
       </c>
-      <c r="C25" s="3">
-        <v>489.35463199999998</v>
-      </c>
-      <c r="D25" s="3">
-        <v>484.83450800000003</v>
+      <c r="C25">
+        <v>486.61191700000001</v>
+      </c>
+      <c r="D25">
+        <v>551.43946400000004</v>
       </c>
       <c r="I25"/>
-      <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25"/>
       <c r="N25"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>10955</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
         <v>960096200</v>
       </c>
-      <c r="C26" s="3">
-        <v>491.93533600000001</v>
-      </c>
-      <c r="D26" s="3">
-        <v>490.17258700000002</v>
+      <c r="C26">
+        <v>487.590169</v>
+      </c>
+      <c r="D26">
+        <v>567.97750699999995</v>
       </c>
       <c r="I26"/>
-      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26"/>
       <c r="N26"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>12811</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
         <v>1312973768</v>
       </c>
-      <c r="C27" s="3">
-        <v>474.70011199999999</v>
-      </c>
-      <c r="D27" s="3">
-        <v>546.90570500000001</v>
+      <c r="C27">
+        <v>473.68696699999998</v>
+      </c>
+      <c r="D27">
+        <v>521.60547599999995</v>
       </c>
       <c r="I27"/>
-      <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27"/>
       <c r="N27"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>14982</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
         <v>1795682592</v>
       </c>
-      <c r="C28" s="3">
-        <v>481.03057000000001</v>
-      </c>
-      <c r="D28" s="3">
-        <v>654.43081500000005</v>
+      <c r="C28">
+        <v>481.99663099999998</v>
+      </c>
+      <c r="D28">
+        <v>563.41983200000004</v>
       </c>
       <c r="I28"/>
-      <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28"/>
       <c r="N28"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>17521</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
         <v>2455883528</v>
       </c>
-      <c r="C29" s="3">
-        <v>483.934099</v>
-      </c>
-      <c r="D29" s="3">
-        <v>768.37998200000004</v>
+      <c r="C29">
+        <v>483.21789200000001</v>
+      </c>
+      <c r="D29">
+        <v>566.92242699999997</v>
       </c>
       <c r="I29"/>
-      <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29"/>
       <c r="N29"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>20489</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
         <v>3358392968</v>
       </c>
-      <c r="C30" s="3">
-        <v>488.79403000000002</v>
-      </c>
-      <c r="D30" s="3">
-        <v>909.421606</v>
+      <c r="C30">
+        <v>486.71804500000002</v>
+      </c>
+      <c r="D30">
+        <v>537.69910700000003</v>
       </c>
       <c r="I30"/>
-      <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30"/>
       <c r="N30"/>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>23961</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
         <v>4593036168</v>
       </c>
-      <c r="C31" s="3">
-        <v>477.909378</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1055.668887</v>
+      <c r="C31">
+        <v>472.272626</v>
+      </c>
+      <c r="D31">
+        <v>544.11497499999996</v>
       </c>
       <c r="I31"/>
-      <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31"/>
       <c r="N31"/>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>28021</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
         <v>6281411528</v>
       </c>
-      <c r="C32" s="3">
-        <v>480.27801299999999</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1229.8799690000001</v>
+      <c r="C32">
+        <v>476.49312900000001</v>
+      </c>
+      <c r="D32">
+        <v>549.31219899999996</v>
       </c>
       <c r="I32"/>
-      <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32"/>
       <c r="N32"/>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>32768</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
         <v>8589934592</v>
       </c>
-      <c r="C33" s="3">
-        <v>474.15587399999998</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1415.523342</v>
+      <c r="C33">
+        <v>467.83911000000001</v>
+      </c>
+      <c r="D33">
+        <v>517.53895499999999</v>
       </c>
       <c r="I33"/>
-      <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33"/>
       <c r="N33"/>
     </row>
     <row r="35" ht="14.25"/>
